--- a/route/timepoints/timepoints_8.xlsx
+++ b/route/timepoints/timepoints_8.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="47">
   <si>
     <t>Timepoints for Driver Position 8</t>
   </si>
   <si>
-    <t>Starting Location: 772b Evergreen McChord Lodging</t>
+    <t>Starting Location: 100a Madigan Hospital</t>
   </si>
   <si>
     <t>Stop ID</t>
@@ -34,85 +34,127 @@
     <t>Departure</t>
   </si>
   <si>
+    <t>772b</t>
+  </si>
+  <si>
+    <t>Evergreen McChord Lodging</t>
+  </si>
+  <si>
+    <t>to Madigan</t>
+  </si>
+  <si>
+    <t>07:10:00</t>
+  </si>
+  <si>
     <t>100a</t>
   </si>
   <si>
     <t>Madigan Hospital</t>
   </si>
   <si>
+    <t>to Lewis North</t>
+  </si>
+  <si>
+    <t>07:30:00</t>
+  </si>
+  <si>
+    <t>480a</t>
+  </si>
+  <si>
+    <t>Warrior Zone</t>
+  </si>
+  <si>
+    <t>07:55:00</t>
+  </si>
+  <si>
     <t>to Passenger Terminal</t>
   </si>
   <si>
-    <t>18:15:00</t>
-  </si>
-  <si>
-    <t>772b</t>
-  </si>
-  <si>
-    <t>Evergreen McChord Lodging</t>
-  </si>
-  <si>
-    <t>to Madigan</t>
-  </si>
-  <si>
-    <t>18:30:00</t>
-  </si>
-  <si>
-    <t>to Lewis North</t>
-  </si>
-  <si>
-    <t>18:45:00</t>
-  </si>
-  <si>
-    <t>480a</t>
-  </si>
-  <si>
-    <t>Warrior Zone</t>
-  </si>
-  <si>
-    <t>19:10:00</t>
-  </si>
-  <si>
-    <t>19:35:00</t>
-  </si>
-  <si>
-    <t>19:50:00</t>
-  </si>
-  <si>
-    <t>20:05:00</t>
-  </si>
-  <si>
-    <t>20:30:00</t>
-  </si>
-  <si>
-    <t>20:55:00</t>
-  </si>
-  <si>
-    <t>21:10:00</t>
-  </si>
-  <si>
-    <t>21:25:00</t>
-  </si>
-  <si>
-    <t>21:50:00</t>
-  </si>
-  <si>
-    <t>22:15:00</t>
-  </si>
-  <si>
-    <t>22:30:00</t>
-  </si>
-  <si>
-    <t>22:45:00</t>
-  </si>
-  <si>
-    <t>23:10:00</t>
-  </si>
-  <si>
-    <t>23:35:00</t>
-  </si>
-  <si>
-    <t>23:50:00</t>
+    <t>08:20:00</t>
+  </si>
+  <si>
+    <t>08:40:00</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>09:25:00</t>
+  </si>
+  <si>
+    <t>09:50:00</t>
+  </si>
+  <si>
+    <t>10:10:00</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>10:55:00</t>
+  </si>
+  <si>
+    <t>11:20:00</t>
+  </si>
+  <si>
+    <t>11:40:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>12:25:00</t>
+  </si>
+  <si>
+    <t>12:50:00</t>
+  </si>
+  <si>
+    <t>13:10:00</t>
+  </si>
+  <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>13:55:00</t>
+  </si>
+  <si>
+    <t>14:20:00</t>
+  </si>
+  <si>
+    <t>14:40:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>15:25:00</t>
+  </si>
+  <si>
+    <t>15:50:00</t>
+  </si>
+  <si>
+    <t>16:10:00</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>16:55:00</t>
+  </si>
+  <si>
+    <t>17:20:00</t>
+  </si>
+  <si>
+    <t>17:40:00</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>18:25:00</t>
+  </si>
+  <si>
+    <t>18:50:00</t>
   </si>
 </sst>
 </file>
@@ -489,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,16 +589,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -567,24 +609,24 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -598,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -612,49 +654,49 @@
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -668,105 +710,105 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -777,10 +819,1998 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/route/timepoints/timepoints_8.xlsx
+++ b/route/timepoints/timepoints_8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="47">
   <si>
     <t>Timepoints for Driver Position 8</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,16 +631,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -687,30 +687,30 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -743,44 +743,44 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -799,170 +799,170 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -973,10 +973,10 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -987,94 +987,94 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1085,10 +1085,10 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1099,10 +1099,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1113,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1127,80 +1127,80 @@
         <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1211,10 +1211,10 @@
         <v>11</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1225,10 +1225,10 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1239,108 +1239,108 @@
         <v>11</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1351,122 +1351,122 @@
         <v>11</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1480,49 +1480,49 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1550,35 +1550,35 @@
         <v>12</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1606,7 +1606,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1620,21 +1620,21 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1648,7 +1648,7 @@
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1662,7 +1662,7 @@
         <v>17</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1676,7 +1676,7 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1690,7 +1690,7 @@
         <v>17</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1704,7 +1704,7 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1718,7 +1718,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1732,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1746,21 +1746,21 @@
         <v>8</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1774,7 +1774,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1788,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1802,35 +1802,35 @@
         <v>12</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1844,7 +1844,7 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1858,49 +1858,49 @@
         <v>8</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1914,175 +1914,175 @@
         <v>17</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2093,10 +2093,10 @@
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2107,94 +2107,94 @@
         <v>11</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2205,10 +2205,10 @@
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2219,10 +2219,10 @@
         <v>11</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2233,10 +2233,10 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2247,80 +2247,80 @@
         <v>11</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2331,10 +2331,10 @@
         <v>11</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2345,10 +2345,10 @@
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2359,457 +2359,9 @@
         <v>11</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>14</v>
-      </c>
-      <c r="B134" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>14</v>
-      </c>
-      <c r="B136" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>10</v>
-      </c>
-      <c r="B140" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>10</v>
-      </c>
-      <c r="B142" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>6</v>
-      </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>10</v>
-      </c>
-      <c r="B152" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154" t="s">
-        <v>15</v>
-      </c>
-      <c r="C154" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>14</v>
-      </c>
-      <c r="B158" t="s">
-        <v>15</v>
-      </c>
-      <c r="C158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>10</v>
-      </c>
-      <c r="B160" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>10</v>
-      </c>
-      <c r="B162" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="4" t="s">
         <v>46</v>
       </c>
     </row>

--- a/route/timepoints/timepoints_8.xlsx
+++ b/route/timepoints/timepoints_8.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="34">
   <si>
     <t>Timepoints for Driver Position 8</t>
   </si>
   <si>
-    <t>Starting Location: 100a Madigan Hospital</t>
+    <t>Starting Location: 480a Warrior Zone</t>
   </si>
   <si>
     <t>Stop ID</t>
@@ -34,127 +34,88 @@
     <t>Departure</t>
   </si>
   <si>
-    <t>772b</t>
-  </si>
-  <si>
-    <t>Evergreen McChord Lodging</t>
+    <t>100a</t>
+  </si>
+  <si>
+    <t>Madigan Hospital</t>
+  </si>
+  <si>
+    <t>to Lewis North</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>480a</t>
+  </si>
+  <si>
+    <t>Warrior Zone</t>
   </si>
   <si>
     <t>to Madigan</t>
   </si>
   <si>
-    <t>07:10:00</t>
-  </si>
-  <si>
-    <t>100a</t>
-  </si>
-  <si>
-    <t>Madigan Hospital</t>
-  </si>
-  <si>
-    <t>to Lewis North</t>
-  </si>
-  <si>
-    <t>07:30:00</t>
-  </si>
-  <si>
-    <t>480a</t>
-  </si>
-  <si>
-    <t>Warrior Zone</t>
-  </si>
-  <si>
-    <t>07:55:00</t>
+    <t>10:30:00</t>
   </si>
   <si>
     <t>to Passenger Terminal</t>
   </si>
   <si>
-    <t>08:20:00</t>
-  </si>
-  <si>
-    <t>08:40:00</t>
-  </si>
-  <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
-    <t>09:25:00</t>
-  </si>
-  <si>
-    <t>09:50:00</t>
-  </si>
-  <si>
-    <t>10:10:00</t>
-  </si>
-  <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
-    <t>10:55:00</t>
-  </si>
-  <si>
-    <t>11:20:00</t>
-  </si>
-  <si>
-    <t>11:40:00</t>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>780a</t>
+  </si>
+  <si>
+    <t>Passenger Terminal</t>
+  </si>
+  <si>
+    <t>11:15:00</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
   </si>
   <si>
     <t>12:00:00</t>
   </si>
   <si>
-    <t>12:25:00</t>
-  </si>
-  <si>
-    <t>12:50:00</t>
-  </si>
-  <si>
-    <t>13:10:00</t>
-  </si>
-  <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
-    <t>13:55:00</t>
-  </si>
-  <si>
-    <t>14:20:00</t>
-  </si>
-  <si>
-    <t>14:40:00</t>
+    <t>12:30:00</t>
+  </si>
+  <si>
+    <t>12:45:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
   </si>
   <si>
     <t>15:00:00</t>
   </si>
   <si>
-    <t>15:25:00</t>
-  </si>
-  <si>
-    <t>15:50:00</t>
-  </si>
-  <si>
-    <t>16:10:00</t>
+    <t>15:15:00</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
   </si>
   <si>
     <t>16:30:00</t>
   </si>
   <si>
-    <t>16:55:00</t>
-  </si>
-  <si>
-    <t>17:20:00</t>
-  </si>
-  <si>
-    <t>17:40:00</t>
-  </si>
-  <si>
-    <t>18:00:00</t>
-  </si>
-  <si>
-    <t>18:25:00</t>
-  </si>
-  <si>
-    <t>18:50:00</t>
+    <t>16:45:00</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>17:30:00</t>
   </si>
 </sst>
 </file>
@@ -531,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,69 +648,69 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -757,13 +718,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>18</v>
@@ -771,13 +732,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -785,13 +746,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
@@ -911,13 +872,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -925,13 +886,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>21</v>
@@ -939,13 +900,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -953,13 +914,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>21</v>
@@ -967,13 +928,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -981,13 +942,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>22</v>
@@ -995,13 +956,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -1009,13 +970,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>22</v>
@@ -1079,13 +1040,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -1093,13 +1054,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>24</v>
@@ -1107,13 +1068,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -1121,13 +1082,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>24</v>
@@ -1135,13 +1096,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
@@ -1149,13 +1110,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>25</v>
@@ -1163,13 +1124,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -1177,13 +1138,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>25</v>
@@ -1191,13 +1152,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
@@ -1205,13 +1166,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>26</v>
@@ -1219,13 +1180,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>26</v>
@@ -1233,13 +1194,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>26</v>
@@ -1247,13 +1208,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
@@ -1261,13 +1222,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>27</v>
@@ -1275,13 +1236,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
@@ -1289,13 +1250,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>27</v>
@@ -1303,13 +1264,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
         <v>28</v>
@@ -1317,13 +1278,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>28</v>
@@ -1331,13 +1292,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
@@ -1345,13 +1306,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>28</v>
@@ -1359,13 +1320,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
         <v>29</v>
@@ -1373,13 +1334,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>29</v>
@@ -1387,13 +1348,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
         <v>29</v>
@@ -1401,13 +1362,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>29</v>
@@ -1415,13 +1376,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
         <v>30</v>
@@ -1429,13 +1390,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>30</v>
@@ -1443,13 +1404,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>30</v>
@@ -1457,13 +1418,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>30</v>
@@ -1471,13 +1432,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
         <v>31</v>
@@ -1485,13 +1446,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>31</v>
@@ -1499,13 +1460,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
         <v>31</v>
@@ -1513,13 +1474,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>31</v>
@@ -1527,13 +1488,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
         <v>32</v>
@@ -1541,13 +1502,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>32</v>
@@ -1555,13 +1516,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
         <v>32</v>
@@ -1569,13 +1530,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>32</v>
@@ -1583,13 +1544,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
         <v>33</v>
@@ -1597,13 +1558,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>33</v>
@@ -1611,13 +1572,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
         <v>33</v>
@@ -1625,744 +1586,16 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>10</v>
-      </c>
-      <c r="B130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
